--- a/static/files/salesContract.xlsx
+++ b/static/files/salesContract.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>MANSEI</t>
   </si>
@@ -150,15 +150,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Trucking:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processing fee:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery Cost:</t>
   </si>
   <si>
     <t xml:space="preserve">GRAND TOTAL:</t>
@@ -611,7 +602,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -794,43 +785,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -865,6 +819,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -880,6 +847,19 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -916,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="99">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1085,13 +1065,7 @@
     <xf fontId="17" fillId="0" borderId="8" numFmtId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="13" fillId="0" borderId="16" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf fontId="13" fillId="0" borderId="17" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf fontId="13" fillId="0" borderId="18" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="13" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf fontId="18" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1103,10 +1077,10 @@
     <xf fontId="13" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="19" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="19" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="19" fillId="0" borderId="12" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1115,19 +1089,19 @@
     <xf fontId="19" fillId="0" borderId="11" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="13" fillId="0" borderId="21" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="13" fillId="0" borderId="18" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="20" fillId="0" borderId="16" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="20" fillId="0" borderId="19" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="21" fillId="0" borderId="22" numFmtId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="21" fillId="0" borderId="20" numFmtId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="22" fillId="0" borderId="6" numFmtId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="9" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1136,16 +1110,16 @@
     <xf fontId="9" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="19" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="0" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="21" fillId="0" borderId="10" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1196,10 +1170,10 @@
     <xf fontId="26" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="26" fillId="0" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="26" fillId="0" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="26" fillId="2" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="26" fillId="2" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="27" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1746,7 +1720,7 @@
     <col bestFit="1" customWidth="1" min="7" max="7" width="8.3800000000000008"/>
     <col bestFit="1" customWidth="1" min="8" max="9" width="9"/>
     <col bestFit="1" customWidth="1" min="10" max="10" width="12.630000000000001"/>
-    <col customWidth="1" min="11" max="11" width="17.00390625"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" width="17.00390625"/>
     <col bestFit="1" customWidth="1" min="12" max="13" width="13.25"/>
     <col bestFit="1" customWidth="1" min="14" max="14" width="14"/>
     <col bestFit="1" customWidth="1" min="15" max="15" width="13.25"/>
@@ -2211,19 +2185,19 @@
       <c r="H15" s="47"/>
       <c r="I15" s="47"/>
       <c r="J15" s="48">
-        <f>IFERROR(((L15/H15)*I15),0)</f>
+        <f t="shared" ref="J15:J26" si="0">IFERROR(((L15/H15)*I15),0)</f>
         <v>0</v>
       </c>
       <c r="K15" s="49">
-        <f t="shared" ref="K15:K25" si="0">H15*J15</f>
+        <f t="shared" ref="K15:K26" si="1">H15*J15</f>
         <v>0</v>
       </c>
       <c r="L15" s="50">
-        <f>C15*E15*G15*H15/1000000000</f>
+        <f t="shared" ref="L15:L30" si="2">C15*E15*G15*H15/1000000000</f>
         <v>0</v>
       </c>
       <c r="M15" s="51">
-        <f t="shared" ref="M15:M25" si="1">L15*500</f>
+        <f t="shared" ref="M15:M30" si="3">L15*500</f>
         <v>0</v>
       </c>
       <c r="N15" s="52"/>
@@ -2251,19 +2225,19 @@
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
       <c r="J16" s="48">
-        <f>IFERROR(((L16/H16)*I16),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L16" s="50">
-        <f t="shared" ref="L16:L25" si="2">C16*E16*G16*H16/1000000000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N16" s="52"/>
@@ -2291,11 +2265,11 @@
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
       <c r="J17" s="48">
-        <f>IFERROR(((L17/H17)*I17),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K17" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L17" s="50">
@@ -2303,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N17" s="52"/>
@@ -2331,11 +2305,11 @@
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="J18" s="48">
-        <f>IFERROR(((L18/H18)*I18),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K18" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L18" s="50">
@@ -2343,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N18" s="52"/>
@@ -2371,11 +2345,11 @@
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="J19" s="48">
-        <f>IFERROR(((L19/H19)*I19),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K19" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L19" s="50">
@@ -2383,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N19" s="52"/>
@@ -2411,11 +2385,11 @@
       <c r="H20" s="47"/>
       <c r="I20" s="47"/>
       <c r="J20" s="48">
-        <f>IFERROR(((L20/H20)*I20),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K20" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L20" s="50">
@@ -2423,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N20" s="52"/>
@@ -2451,11 +2425,11 @@
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
       <c r="J21" s="48">
-        <f>IFERROR(((L21/H21)*I21),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L21" s="50">
@@ -2463,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N21" s="52"/>
@@ -2491,11 +2465,11 @@
       <c r="H22" s="47"/>
       <c r="I22" s="47"/>
       <c r="J22" s="48">
-        <f>IFERROR(((L22/H22)*I22),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L22" s="50">
@@ -2503,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N22" s="52"/>
@@ -2531,11 +2505,11 @@
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
       <c r="J23" s="48">
-        <f>IFERROR(((L23/H23)*I23),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K23" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L23" s="50">
@@ -2543,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="51">
-        <f>L23*500</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N23" s="52"/>
@@ -2571,11 +2545,11 @@
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
       <c r="J24" s="48">
-        <f>IFERROR(((L24/H24)*I24),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K24" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L24" s="50">
@@ -2583,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N24" s="52"/>
@@ -2611,11 +2585,11 @@
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
       <c r="J25" s="48">
-        <f>IFERROR(((L25/H25)*I25),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K25" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L25" s="50">
@@ -2623,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N25" s="52"/>
@@ -2651,19 +2625,19 @@
       <c r="H26" s="45"/>
       <c r="I26" s="45"/>
       <c r="J26" s="48">
-        <f>IFERROR(((L26/H26)*I26),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K26" s="49">
-        <f>H26*J26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L26" s="50">
-        <f>C26*E26*G26*H26/1000000000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M26" s="55">
-        <f>L26*500</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N26" s="52"/>
@@ -2690,18 +2664,16 @@
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
       <c r="I27" s="45"/>
-      <c r="J27" s="56" t="s">
-        <v>34</v>
-      </c>
+      <c r="J27" s="56"/>
       <c r="K27" s="49">
         <v>0</v>
       </c>
       <c r="L27" s="50">
-        <f>C27*E27*G27*H27/1000000000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M27" s="55">
-        <f>L27*500</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N27" s="52"/>
@@ -2728,18 +2700,16 @@
       <c r="G28" s="45"/>
       <c r="H28" s="45"/>
       <c r="I28" s="45"/>
-      <c r="J28" s="57" t="s">
-        <v>35</v>
-      </c>
+      <c r="J28" s="56"/>
       <c r="K28" s="49">
         <v>0</v>
       </c>
       <c r="L28" s="50">
-        <f>C28*E28*G28*H28/1000000000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M28" s="55">
-        <f>L28*500</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N28" s="52"/>
@@ -2766,18 +2736,16 @@
       <c r="G29" s="45"/>
       <c r="H29" s="45"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="58" t="s">
-        <v>36</v>
-      </c>
+      <c r="J29" s="56"/>
       <c r="K29" s="49">
         <v>0</v>
       </c>
       <c r="L29" s="50">
-        <f>C29*E29*G29*H29/1000000000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M29" s="55">
-        <f>L29*500</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N29" s="52"/>
@@ -2794,24 +2762,24 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" ht="6" customHeight="1">
+    <row r="30" ht="21" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="59"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
       <c r="E30" s="45"/>
       <c r="F30" s="45"/>
       <c r="G30" s="45"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="61"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="59"/>
       <c r="K30" s="49"/>
       <c r="L30" s="50">
-        <f>C30*E30*G30*H30/1000000000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M30" s="55">
-        <f>L30*500</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N30" s="52"/>
@@ -2830,28 +2798,28 @@
     </row>
     <row r="31" ht="18" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="62" t="s">
-        <v>37</v>
+      <c r="B31" s="60" t="s">
+        <v>34</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="19"/>
-      <c r="G31" s="63" t="s">
-        <v>38</v>
+      <c r="G31" s="61" t="s">
+        <v>35</v>
       </c>
-      <c r="H31" s="64"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="67">
-        <f t="shared" ref="K31:L31" si="3">SUM(K15:K30)</f>
+      <c r="H31" s="62"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="65">
+        <f t="shared" ref="K31:L31" si="4">SUM(K15:K30)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="68">
-        <f t="shared" si="3"/>
+      <c r="L31" s="66">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M31" s="69">
+      <c r="M31" s="67">
         <f>SUM(M15:M26)</f>
         <v>0</v>
       </c>
@@ -2871,22 +2839,22 @@
     </row>
     <row r="32" ht="21" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="73" t="s">
-        <v>39</v>
+      <c r="B32" s="68"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="71" t="s">
+        <v>36</v>
       </c>
-      <c r="H32" s="64">
+      <c r="H32" s="62">
         <f>SUM(H15:H30)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="65"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="76"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="74"/>
       <c r="M32" s="42"/>
       <c r="N32" s="52"/>
       <c r="O32" s="6"/>
@@ -2932,18 +2900,18 @@
     </row>
     <row r="34" ht="18" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="77" t="s">
-        <v>40</v>
+      <c r="B34" s="75" t="s">
+        <v>37</v>
       </c>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="80"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="78"/>
       <c r="O34" s="6"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -2959,22 +2927,22 @@
     </row>
     <row r="35" ht="17.25" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="81" t="s">
-        <v>41</v>
+      <c r="B35" s="79" t="s">
+        <v>38</v>
       </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="6"/>
@@ -2989,11 +2957,11 @@
     </row>
     <row r="36" ht="24" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="83" t="s">
-        <v>42</v>
+      <c r="B36" s="81" t="s">
+        <v>39</v>
       </c>
-      <c r="N36" s="80"/>
-      <c r="O36" s="80"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="6"/>
@@ -3008,11 +2976,11 @@
     </row>
     <row r="37" ht="27.75" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="83" t="s">
-        <v>43</v>
+      <c r="B37" s="81" t="s">
+        <v>40</v>
       </c>
-      <c r="N37" s="80"/>
-      <c r="O37" s="80"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="6"/>
@@ -3027,11 +2995,11 @@
     </row>
     <row r="38" ht="27.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="83" t="s">
-        <v>44</v>
+      <c r="B38" s="81" t="s">
+        <v>41</v>
       </c>
-      <c r="N38" s="80"/>
-      <c r="O38" s="80"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="78"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="6"/>
@@ -3046,11 +3014,11 @@
     </row>
     <row r="39" ht="26.25" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="83" t="s">
-        <v>45</v>
+      <c r="B39" s="81" t="s">
+        <v>42</v>
       </c>
-      <c r="N39" s="80"/>
-      <c r="O39" s="80"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="78"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="6"/>
@@ -3065,20 +3033,20 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="81" t="s">
-        <v>46</v>
+      <c r="B40" s="79" t="s">
+        <v>43</v>
       </c>
-      <c r="C40" s="82"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="79"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="77"/>
       <c r="N40" s="1"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -3095,8 +3063,8 @@
     </row>
     <row r="41" ht="27.75" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="83" t="s">
-        <v>47</v>
+      <c r="B41" s="81" t="s">
+        <v>44</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="6"/>
@@ -3114,8 +3082,8 @@
     </row>
     <row r="42" ht="26.25" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="84" t="s">
-        <v>48</v>
+      <c r="B42" s="82" t="s">
+        <v>45</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="6"/>
@@ -3137,13 +3105,13 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
       <c r="M43" s="14"/>
       <c r="N43" s="1"/>
       <c r="O43" s="6"/>
@@ -3165,13 +3133,13 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
       <c r="M44" s="14"/>
       <c r="N44" s="1"/>
       <c r="O44" s="6"/>
@@ -3189,19 +3157,19 @@
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="86" t="s">
-        <v>49</v>
+      <c r="B45" s="84" t="s">
+        <v>46</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="87">
+      <c r="G45" s="85">
         <f>K31</f>
         <v>0</v>
       </c>
-      <c r="I45" s="87"/>
+      <c r="I45" s="85"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="88"/>
+      <c r="K45" s="86"/>
       <c r="L45" s="3"/>
       <c r="M45" s="14"/>
       <c r="N45" s="1"/>
@@ -3220,18 +3188,18 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="86" t="s">
-        <v>50</v>
+      <c r="B46" s="84" t="s">
+        <v>47</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="89"/>
+      <c r="K46" s="87"/>
       <c r="L46" s="3"/>
       <c r="M46" s="14"/>
       <c r="N46" s="1"/>
@@ -3250,20 +3218,20 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="90" t="s">
-        <v>52</v>
+      <c r="B47" s="88" t="s">
+        <v>49</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="89"/>
+      <c r="K47" s="87"/>
       <c r="L47" s="3"/>
       <c r="M47" s="14"/>
       <c r="N47" s="1"/>
@@ -3290,10 +3258,10 @@
       <c r="G48" s="3"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="91"/>
-      <c r="K48" s="91"/>
-      <c r="L48" s="91"/>
-      <c r="M48" s="91"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="89"/>
       <c r="N48" s="1"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
@@ -3310,8 +3278,8 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="86" t="s">
-        <v>54</v>
+      <c r="B49" s="84" t="s">
+        <v>51</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3321,7 +3289,7 @@
       <c r="I49" s="4"/>
       <c r="J49" s="3"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="86"/>
+      <c r="L49" s="84"/>
       <c r="M49" s="14"/>
       <c r="N49" s="1"/>
       <c r="O49" s="6"/>
@@ -3339,13 +3307,13 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="92" t="s">
-        <v>55</v>
+      <c r="B50" s="90" t="s">
+        <v>52</v>
       </c>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="93"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="91"/>
       <c r="G50" s="1"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -3369,19 +3337,19 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="92" t="s">
-        <v>56</v>
+      <c r="B51" s="90" t="s">
+        <v>53</v>
       </c>
-      <c r="C51" s="92"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="93"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="91"/>
       <c r="G51" s="1"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="86" t="s">
-        <v>57</v>
+      <c r="K51" s="84" t="s">
+        <v>54</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="14"/>
@@ -3401,18 +3369,18 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="92" t="s">
-        <v>58</v>
+      <c r="B52" s="90" t="s">
+        <v>55</v>
       </c>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="94"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="90"/>
+      <c r="F52" s="92"/>
       <c r="G52" s="1"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="86" t="s">
+      <c r="K52" s="84" t="s">
         <v>1</v>
       </c>
       <c r="L52" s="3"/>
@@ -3433,11 +3401,11 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
       <c r="G53" s="1"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -3461,11 +3429,11 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="92"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="92"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
       <c r="G54" s="1"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -3489,15 +3457,15 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="86" t="s">
-        <v>59</v>
+      <c r="B55" s="84" t="s">
+        <v>56</v>
       </c>
-      <c r="C55" s="95"/>
+      <c r="C55" s="93"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="96" t="s">
-        <v>60</v>
+      <c r="K55" s="94" t="s">
+        <v>57</v>
       </c>
       <c r="M55" s="14"/>
       <c r="N55" s="1"/>
@@ -3516,21 +3484,21 @@
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="86" t="s">
-        <v>61</v>
+      <c r="B56" s="84" t="s">
+        <v>58</v>
       </c>
-      <c r="C56" s="97"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="97"/>
-      <c r="G56" s="97"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="95"/>
+      <c r="G56" s="95"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="6"/>
-      <c r="K56" s="96" t="s">
-        <v>62</v>
+      <c r="K56" s="94" t="s">
+        <v>59</v>
       </c>
-      <c r="M56" s="96"/>
+      <c r="M56" s="94"/>
       <c r="N56" s="1"/>
       <c r="O56" s="6"/>
       <c r="P56" s="1"/>
@@ -3547,9 +3515,9 @@
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="98" t="s">
-        <v>63</v>
+      <c r="B57" s="84"/>
+      <c r="C57" s="96" t="s">
+        <v>60</v>
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
@@ -3558,8 +3526,8 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="6"/>
-      <c r="K57" s="96"/>
-      <c r="M57" s="96"/>
+      <c r="K57" s="94"/>
+      <c r="M57" s="94"/>
       <c r="N57" s="1"/>
       <c r="O57" s="6"/>
       <c r="P57" s="1"/>
@@ -3587,7 +3555,7 @@
       <c r="J58" s="6"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
-      <c r="M58" s="96"/>
+      <c r="M58" s="94"/>
       <c r="N58" s="1"/>
       <c r="O58" s="6"/>
       <c r="P58" s="1"/>
@@ -3613,7 +3581,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="6"/>
-      <c r="K59" s="97"/>
+      <c r="K59" s="95"/>
       <c r="L59" s="38"/>
       <c r="M59" s="14"/>
       <c r="N59" s="1"/>
@@ -3632,19 +3600,19 @@
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="1"/>
-      <c r="B60" s="86" t="s">
-        <v>64</v>
+      <c r="B60" s="84" t="s">
+        <v>61</v>
       </c>
-      <c r="C60" s="99"/>
-      <c r="D60" s="100"/>
-      <c r="E60" s="100"/>
-      <c r="F60" s="100"/>
-      <c r="G60" s="100"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="98"/>
+      <c r="G60" s="98"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="6"/>
-      <c r="K60" s="96" t="s">
-        <v>65</v>
+      <c r="K60" s="94" t="s">
+        <v>62</v>
       </c>
       <c r="M60" s="14"/>
       <c r="N60" s="1"/>
@@ -3663,15 +3631,15 @@
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="1"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="96" t="s">
-        <v>66</v>
+      <c r="B61" s="84"/>
+      <c r="C61" s="94" t="s">
+        <v>63</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="6"/>
-      <c r="K61" s="96" t="s">
-        <v>67</v>
+      <c r="K61" s="94" t="s">
+        <v>64</v>
       </c>
       <c r="M61" s="14"/>
       <c r="N61" s="1"/>
@@ -3690,8 +3658,8 @@
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="86"/>
-      <c r="C62" s="96"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="94"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="4"/>
